--- a/Module 7 Model.xlsx
+++ b/Module 7 Model.xlsx
@@ -8,60 +8,72 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\GSCM 330\Module 7- Maximal Work Flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53A02D47-A896-4A0D-94D1-CCD815F70E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51845694-A19C-408E-9E9E-68610F49BFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{9CB9DA70-754D-44B0-A86F-945BF5626873}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9CB9DA70-754D-44B0-A86F-945BF5626873}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
     <sheet name="Capacity" sheetId="2" r:id="rId2"/>
-    <sheet name="Linearity Report 1" sheetId="5" r:id="rId3"/>
-    <sheet name="Model" sheetId="4" r:id="rId4"/>
+    <sheet name="Model" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Model!$B$6:$B$18</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Model!$B$6:$B$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Model!$B$6:$B$18</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Model!$M$6:$M$13</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Model!$F$2</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Model!$G$6:$G$18</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Model!$N$6:$N$13</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Model!$B$6:$B$18</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Model!$B$6:$B$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Model!$B$6:$B$18</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Model!$M$6:$M$13</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Model!$F$2</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Model!$G$6:$G$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Model!$N$6:$N$13</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>location_id</t>
   </si>
@@ -133,175 +145,13 @@
   </si>
   <si>
     <t>Net Flow</t>
-  </si>
-  <si>
-    <t>Microsoft Excel 16.0 Linearity Report</t>
-  </si>
-  <si>
-    <t>Worksheet: [{Steve and Murr's Candy}_Module07_Locations.csv]Model</t>
-  </si>
-  <si>
-    <t>Report Created: 3/26/2025 7:57:21 PM</t>
-  </si>
-  <si>
-    <t>Objective Cell (Max)</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Original Value</t>
-  </si>
-  <si>
-    <t>Final Value</t>
-  </si>
-  <si>
-    <t>Linear Function</t>
-  </si>
-  <si>
-    <t>Variable Cells</t>
-  </si>
-  <si>
-    <t>Occurs Linearly</t>
-  </si>
-  <si>
-    <t>Constraints</t>
-  </si>
-  <si>
-    <t>Cell Value</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>$F$2</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>$B$6</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>$B$7</t>
-  </si>
-  <si>
-    <t>$B$8</t>
-  </si>
-  <si>
-    <t>$B$9</t>
-  </si>
-  <si>
-    <t>$B$10</t>
-  </si>
-  <si>
-    <t>$B$11</t>
-  </si>
-  <si>
-    <t>$B$12</t>
-  </si>
-  <si>
-    <t>$B$13</t>
-  </si>
-  <si>
-    <t>$B$14</t>
-  </si>
-  <si>
-    <t>$B$15</t>
-  </si>
-  <si>
-    <t>$B$16</t>
-  </si>
-  <si>
-    <t>$B$17</t>
-  </si>
-  <si>
-    <t>$B$18</t>
-  </si>
-  <si>
-    <t>$M$6</t>
-  </si>
-  <si>
-    <t>Coconut Cream Cove Net Flow</t>
-  </si>
-  <si>
-    <t>$M$6=$N$6</t>
-  </si>
-  <si>
-    <t>$M$7</t>
-  </si>
-  <si>
-    <t>Molten Mocha Marsh Net Flow</t>
-  </si>
-  <si>
-    <t>$M$7=$N$7</t>
-  </si>
-  <si>
-    <t>$M$8</t>
-  </si>
-  <si>
-    <t>Nougat Nook Net Flow</t>
-  </si>
-  <si>
-    <t>$M$8=$N$8</t>
-  </si>
-  <si>
-    <t>$M$9</t>
-  </si>
-  <si>
-    <t>Peanut Butter Parlor Net Flow</t>
-  </si>
-  <si>
-    <t>$M$9=$N$9</t>
-  </si>
-  <si>
-    <t>$M$10</t>
-  </si>
-  <si>
-    <t>Pudding Peaks Net Flow</t>
-  </si>
-  <si>
-    <t>$M$10=$N$10</t>
-  </si>
-  <si>
-    <t>$M$11</t>
-  </si>
-  <si>
-    <t>Rainbow Sprinkle Summit Net Flow</t>
-  </si>
-  <si>
-    <t>$M$11=$N$11</t>
-  </si>
-  <si>
-    <t>$M$12</t>
-  </si>
-  <si>
-    <t>Smores Summit Net Flow</t>
-  </si>
-  <si>
-    <t>$M$12=$N$12</t>
-  </si>
-  <si>
-    <t>$M$13</t>
-  </si>
-  <si>
-    <t>Sour Patch Prairie Net Flow</t>
-  </si>
-  <si>
-    <t>$M$13=$N$13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,14 +286,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="18"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -662,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -793,37 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="23"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -883,56 +694,45 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1566,487 +1366,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BA278B-D545-4054-8858-CFD3644D1403}">
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="8">
-        <v>-15</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6075D0BD-D5BA-4DF5-B74F-3C7E3A730CEE}">
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2062,515 +1386,515 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="1">
         <f>B18</f>
         <v>637</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
       <c r="I5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="17"/>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="23">
+      <c r="B6" s="9">
         <v>387</v>
       </c>
-      <c r="C6" s="24">
-        <v>0</v>
-      </c>
-      <c r="D6" s="24" t="str">
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="str">
         <f>_xlfn.XLOOKUP(C6,$I$6:$I$13,$J$6:$J$13)</f>
         <v>Coconut Cream Cove</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="24" t="str">
+      <c r="F6" s="10" t="str">
         <f>_xlfn.XLOOKUP(E6,$I$6:$I$13,$J$6:$J$13)</f>
         <v>Molten Mocha Marsh</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="10">
         <v>387</v>
       </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="2">
         <f>SUMIF($E$6:$E$18,I6,$B$6:$B$18)</f>
         <v>637</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="2">
         <f>SUMIF($C$6:$C$18,I6,$B$6:$B$18)</f>
         <v>637</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="2">
         <f>K6-L6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="23">
+      <c r="B7" s="9">
         <v>196</v>
       </c>
-      <c r="C7" s="24">
-        <v>0</v>
-      </c>
-      <c r="D7" s="24" t="str">
-        <f t="shared" ref="D7:D18" si="0">_xlfn.XLOOKUP(C7,$I$6:$I$13,$J$6:$J$13)</f>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f>_xlfn.XLOOKUP(C7,$I$6:$I$13,$J$6:$J$13)</f>
         <v>Coconut Cream Cove</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="10">
         <v>2</v>
       </c>
-      <c r="F7" s="24" t="str">
-        <f t="shared" ref="F7:F18" si="1">_xlfn.XLOOKUP(E7,$I$6:$I$13,$J$6:$J$13)</f>
+      <c r="F7" s="10" t="str">
+        <f t="shared" ref="F7:F17" si="0">_xlfn.XLOOKUP(E7,$I$6:$I$13,$J$6:$J$13)</f>
         <v>Nougat Nook</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="10">
         <v>196</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="21">
-        <f t="shared" ref="K7:K13" si="2">SUMIF($E$6:$E$18,I7,$B$6:$B$18)</f>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K13" si="1">SUMIF($E$6:$E$18,I7,$B$6:$B$18)</f>
         <v>387</v>
       </c>
-      <c r="L7" s="21">
-        <f t="shared" ref="L7:L13" si="3">SUMIF($C$6:$C$18,I7,$B$6:$B$18)</f>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7:L13" si="2">SUMIF($C$6:$C$18,I7,$B$6:$B$18)</f>
         <v>387</v>
       </c>
-      <c r="M7" s="21">
-        <f t="shared" ref="M7:M13" si="4">K7-L7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M13" si="3">K7-L7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="25">
+      <c r="B8" s="11">
         <v>54</v>
       </c>
-      <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8" s="26" t="str">
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f t="shared" ref="D7:D18" si="4">_xlfn.XLOOKUP(C8,$I$6:$I$13,$J$6:$J$13)</f>
+        <v>Coconut Cream Cove</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Coconut Cream Cove</v>
-      </c>
-      <c r="E8" s="26">
-        <v>3</v>
-      </c>
-      <c r="F8" s="26" t="str">
+        <v>Peanut Butter Parlor</v>
+      </c>
+      <c r="G8" s="12">
+        <v>418</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>Peanut Butter Parlor</v>
-      </c>
-      <c r="G8" s="26">
-        <v>418</v>
-      </c>
-      <c r="I8" s="20">
-        <v>2</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="21">
+        <v>250</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="L8" s="21">
+      <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="M8" s="21">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="9">
+        <v>145</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="23">
+        <v>Molten Mocha Marsh</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Pudding Peaks</v>
+      </c>
+      <c r="G9" s="10">
         <v>145</v>
       </c>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>Molten Mocha Marsh</v>
-      </c>
-      <c r="E9" s="24">
-        <v>4</v>
-      </c>
-      <c r="F9" s="24" t="str">
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>Pudding Peaks</v>
-      </c>
-      <c r="G9" s="24">
-        <v>145</v>
-      </c>
-      <c r="I9" s="20">
-        <v>3</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="21">
+        <v>54</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="L9" s="21">
+      <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="M9" s="21">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="11">
+        <v>242</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="25">
-        <v>242</v>
-      </c>
-      <c r="C10" s="26">
-        <v>1</v>
-      </c>
-      <c r="D10" s="26" t="str">
+        <v>Molten Mocha Marsh</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Molten Mocha Marsh</v>
-      </c>
-      <c r="E10" s="26">
-        <v>5</v>
-      </c>
-      <c r="F10" s="26" t="str">
+        <v>Rainbow Sprinkle Summit</v>
+      </c>
+      <c r="G10" s="12">
+        <v>283</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>Rainbow Sprinkle Summit</v>
-      </c>
-      <c r="G10" s="26">
-        <v>283</v>
-      </c>
-      <c r="I10" s="20">
-        <v>4</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="21">
+        <v>395</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
         <v>395</v>
       </c>
-      <c r="L10" s="21">
+      <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>395</v>
-      </c>
-      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="11">
+        <v>250</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="25">
-        <v>250</v>
-      </c>
-      <c r="C11" s="26">
+        <v>Nougat Nook</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Pudding Peaks</v>
+      </c>
+      <c r="G11" s="12">
+        <v>295</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="M11" s="2">
+        <f>K11-L11</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
+        <v>54</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Peanut Butter Parlor</v>
+      </c>
+      <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="F12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Nougat Nook</v>
       </c>
-      <c r="E11" s="26">
-        <v>4</v>
-      </c>
-      <c r="F11" s="26" t="str">
+      <c r="G12" s="10">
+        <v>54</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>Pudding Peaks</v>
-      </c>
-      <c r="G11" s="26">
-        <v>295</v>
-      </c>
-      <c r="I11" s="20">
-        <v>5</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="21">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="L11" s="21">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-      <c r="M11" s="21">
-        <f>K11-L11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="23">
-        <v>54</v>
-      </c>
-      <c r="C12" s="24">
-        <v>3</v>
-      </c>
-      <c r="D12" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>Peanut Butter Parlor</v>
-      </c>
-      <c r="E12" s="24">
-        <v>2</v>
-      </c>
-      <c r="F12" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>Nougat Nook</v>
-      </c>
-      <c r="G12" s="24">
-        <v>54</v>
-      </c>
-      <c r="I12" s="20">
-        <v>6</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="21">
+        <v>158</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="L12" s="21">
+      <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
-      <c r="M12" s="21">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
+        <v>367</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="23">
+        <v>Pudding Peaks</v>
+      </c>
+      <c r="E13" s="10">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Sour Patch Prairie</v>
+      </c>
+      <c r="G13" s="10">
         <v>367</v>
       </c>
-      <c r="C13" s="24">
-        <v>4</v>
-      </c>
-      <c r="D13" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>Pudding Peaks</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="I13" s="4">
         <v>7</v>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="J13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>Sour Patch Prairie</v>
-      </c>
-      <c r="G13" s="24">
-        <v>367</v>
-      </c>
-      <c r="I13" s="20">
-        <v>7</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="21">
+        <v>637</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="2"/>
         <v>637</v>
       </c>
-      <c r="L13" s="21">
+      <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>637</v>
-      </c>
-      <c r="M13" s="21">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="11">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="25">
-        <v>28</v>
-      </c>
-      <c r="C14" s="26">
-        <v>4</v>
-      </c>
-      <c r="D14" s="26" t="str">
-        <f t="shared" si="0"/>
         <v>Pudding Peaks</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="12">
         <v>5</v>
       </c>
-      <c r="F14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Rainbow Sprinkle Summit</v>
-      </c>
-      <c r="G14" s="26">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="25">
-        <v>112</v>
-      </c>
-      <c r="C15" s="26">
-        <v>5</v>
-      </c>
-      <c r="D15" s="26" t="str">
+      <c r="F14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Rainbow Sprinkle Summit</v>
       </c>
-      <c r="E15" s="26">
+      <c r="G14" s="12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="11">
+        <v>112</v>
+      </c>
+      <c r="C15" s="12">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Rainbow Sprinkle Summit</v>
+      </c>
+      <c r="E15" s="12">
         <v>7</v>
       </c>
-      <c r="F15" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="F15" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>Sour Patch Prairie</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="12">
         <v>401</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="23">
+      <c r="B16" s="9">
         <v>158</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="10">
         <v>5</v>
       </c>
-      <c r="D16" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="D16" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>Rainbow Sprinkle Summit</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="10">
         <v>6</v>
       </c>
-      <c r="F16" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>Smores Summit</v>
-      </c>
-      <c r="G16" s="24">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="25">
-        <v>158</v>
-      </c>
-      <c r="C17" s="26">
-        <v>6</v>
-      </c>
-      <c r="D17" s="26" t="str">
+      <c r="F16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Smores Summit</v>
       </c>
-      <c r="E17" s="26">
+      <c r="G16" s="10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="11">
+        <v>158</v>
+      </c>
+      <c r="C17" s="12">
+        <v>6</v>
+      </c>
+      <c r="D17" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Smores Summit</v>
+      </c>
+      <c r="E17" s="12">
         <v>7</v>
       </c>
-      <c r="F17" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Sour Patch Prairie</v>
-      </c>
-      <c r="G17" s="26">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="13">
-        <v>637</v>
-      </c>
-      <c r="C18" s="14">
-        <v>7</v>
-      </c>
-      <c r="D18" s="14" t="str">
+      <c r="F17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sour Patch Prairie</v>
       </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14" t="str">
+      <c r="G17" s="12">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="3">
+        <v>637</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Sour Patch Prairie</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="str">
         <f>_xlfn.XLOOKUP(E18,$I$6:$I$13,$J$6:$J$13)</f>
         <v>Coconut Cream Cove</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="4">
         <v>99999</v>
       </c>
     </row>
